--- a/inst/extdata/waschoolpiracema.xlsx
+++ b/inst/extdata/waschoolpiracema.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">sewage_fossa_septica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sewage_inexistente</t>
   </si>
   <si>
     <t xml:space="preserve">waste_servico_coleta</t>
@@ -578,9 +575,6 @@
       <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -590,108 +584,105 @@
         <v>31035386</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
         <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="W2" t="s">
-        <v>39</v>
+      <c r="W2" t="n">
+        <v>678</v>
       </c>
       <c r="X2" t="n">
-        <v>678</v>
+        <v>51.9174041297935</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.9174041297935</v>
+        <v>48.0825958702065</v>
       </c>
       <c r="Z2" t="n">
-        <v>48.0825958702065</v>
+        <v>45.1327433628319</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.1327433628319</v>
+        <v>41.4454277286136</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.4454277286136</v>
+        <v>10.3244837758112</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.3244837758112</v>
+        <v>0.294985250737463</v>
       </c>
       <c r="AD2" t="n">
         <v>0.294985250737463</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.294985250737463</v>
+        <v>2.50737463126844</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.50737463126844</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>22.5663716814159</v>
       </c>
       <c r="AI2" t="n">
-        <v>22.5663716814159</v>
+        <v>39.6755162241888</v>
       </c>
       <c r="AJ2" t="n">
-        <v>39.6755162241888</v>
-      </c>
-      <c r="AK2" t="n">
         <v>32.1533923303835</v>
       </c>
     </row>
@@ -703,108 +694,105 @@
         <v>31039918</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s">
         <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W3" t="n">
+        <v>14</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="Y3" t="n">
         <v>50</v>
       </c>
       <c r="Z3" t="n">
+        <v>42.8571428571429</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>7.14285714285714</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>50</v>
       </c>
-      <c r="AA3" t="n">
-        <v>42.8571428571429</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7.14285714285714</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
       <c r="AF3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -816,108 +804,105 @@
         <v>31039926</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s">
         <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s">
         <v>38</v>
       </c>
       <c r="V4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W4" t="n">
+        <v>127</v>
       </c>
       <c r="X4" t="n">
-        <v>127</v>
+        <v>59.0551181102362</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.0551181102362</v>
+        <v>40.9448818897638</v>
       </c>
       <c r="Z4" t="n">
-        <v>40.9448818897638</v>
+        <v>45.6692913385827</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.6692913385827</v>
+        <v>25.9842519685039</v>
       </c>
       <c r="AB4" t="n">
-        <v>25.9842519685039</v>
+        <v>2.36220472440945</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.36220472440945</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.5748031496063</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.5748031496063</v>
+        <v>24.4094488188976</v>
       </c>
       <c r="AF4" t="n">
-        <v>24.4094488188976</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -929,108 +914,105 @@
         <v>31039934</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
         <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s">
         <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W5" t="n">
+        <v>117</v>
       </c>
       <c r="X5" t="n">
-        <v>117</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.4444444444444</v>
+        <v>55.5555555555556</v>
       </c>
       <c r="Z5" t="n">
-        <v>55.5555555555556</v>
+        <v>58.1196581196581</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.1196581196581</v>
+        <v>29.0598290598291</v>
       </c>
       <c r="AB5" t="n">
-        <v>29.0598290598291</v>
+        <v>4.27350427350427</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.27350427350427</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.70940170940171</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.70940170940171</v>
+        <v>6.83760683760684</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.83760683760684</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>37.6068376068376</v>
       </c>
       <c r="AI5" t="n">
-        <v>37.6068376068376</v>
+        <v>62.3931623931624</v>
       </c>
       <c r="AJ5" t="n">
-        <v>62.3931623931624</v>
-      </c>
-      <c r="AK5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1042,108 +1024,105 @@
         <v>31235938</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
         <v>38</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s">
         <v>38</v>
       </c>
       <c r="V6" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W6" t="n">
+        <v>94</v>
       </c>
       <c r="X6" t="n">
-        <v>94</v>
+        <v>53.1914893617021</v>
       </c>
       <c r="Y6" t="n">
-        <v>53.1914893617021</v>
+        <v>46.8085106382979</v>
       </c>
       <c r="Z6" t="n">
-        <v>46.8085106382979</v>
+        <v>54.2553191489362</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.2553191489362</v>
+        <v>30.8510638297872</v>
       </c>
       <c r="AB6" t="n">
-        <v>30.8510638297872</v>
+        <v>4.25531914893617</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.25531914893617</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>10.6382978723404</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.6382978723404</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1155,97 +1134,97 @@
         <v>31287199</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N7" t="s">
         <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s">
         <v>38</v>
       </c>
       <c r="U7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W7" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W7" t="n">
+        <v>82</v>
       </c>
       <c r="X7" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="Y7" t="n">
         <v>50</v>
       </c>
       <c r="Z7" t="n">
-        <v>50</v>
+        <v>37.8048780487805</v>
       </c>
       <c r="AA7" t="n">
-        <v>37.8048780487805</v>
+        <v>43.9024390243902</v>
       </c>
       <c r="AB7" t="n">
-        <v>43.9024390243902</v>
+        <v>10.9756097560976</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.9756097560976</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.21951219512195</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.21951219512195</v>
+        <v>6.09756097560976</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.09756097560976</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1254,9 +1233,6 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1268,108 +1244,105 @@
         <v>31292346</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
         <v>38</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W8" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W8" t="n">
+        <v>44</v>
       </c>
       <c r="X8" t="n">
-        <v>44</v>
+        <v>36.3636363636364</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.3636363636364</v>
+        <v>63.6363636363636</v>
       </c>
       <c r="Z8" t="n">
-        <v>63.6363636363636</v>
+        <v>50</v>
       </c>
       <c r="AA8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>11.3636363636364</v>
       </c>
       <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13.6363636363636</v>
+      </c>
+      <c r="AF8" t="n">
         <v>11.3636363636364</v>
       </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>13.6363636363636</v>
-      </c>
       <c r="AG8" t="n">
+        <v>6.81818181818182</v>
+      </c>
+      <c r="AH8" t="n">
         <v>11.3636363636364</v>
       </c>
-      <c r="AH8" t="n">
-        <v>6.81818181818182</v>
-      </c>
       <c r="AI8" t="n">
-        <v>11.3636363636364</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1381,108 +1354,105 @@
         <v>31035386</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" t="n">
+        <v>700</v>
+      </c>
+      <c r="X9" t="n">
+        <v>51.7142857142857</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>48.2857142857143</v>
+      </c>
+      <c r="Z9" t="n">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" t="s">
-        <v>38</v>
-      </c>
-      <c r="W9" t="s">
-        <v>39</v>
-      </c>
-      <c r="X9" t="n">
-        <v>700</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>51.7142857142857</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>48.2857142857143</v>
-      </c>
       <c r="AA9" t="n">
-        <v>39</v>
+        <v>47.1428571428571</v>
       </c>
       <c r="AB9" t="n">
-        <v>47.1428571428571</v>
+        <v>9.85714285714286</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.85714285714286</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="AD9" t="n">
         <v>0.285714285714286</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.285714285714286</v>
+        <v>3.42857142857143</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>14.7142857142857</v>
       </c>
       <c r="AI9" t="n">
-        <v>14.7142857142857</v>
+        <v>51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK9" t="n">
         <v>25.7142857142857</v>
       </c>
     </row>
@@ -1494,82 +1464,82 @@
         <v>31039918</v>
       </c>
       <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" t="n">
+        <v>15</v>
+      </c>
+      <c r="X10" t="n">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V10" t="s">
-        <v>38</v>
-      </c>
-      <c r="W10" t="s">
-        <v>38</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15</v>
-      </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Z10" t="n">
-        <v>60</v>
+        <v>53.3333333333333</v>
       </c>
       <c r="AA10" t="n">
-        <v>53.3333333333333</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -1578,24 +1548,21 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="AF10" t="n">
-        <v>33.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,108 +1574,105 @@
         <v>31039926</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>38</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S11" t="s">
         <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V11" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W11" t="n">
+        <v>152</v>
       </c>
       <c r="X11" t="n">
-        <v>152</v>
+        <v>57.2368421052632</v>
       </c>
       <c r="Y11" t="n">
-        <v>57.2368421052632</v>
+        <v>42.7631578947368</v>
       </c>
       <c r="Z11" t="n">
-        <v>42.7631578947368</v>
+        <v>44.078947368421</v>
       </c>
       <c r="AA11" t="n">
-        <v>44.078947368421</v>
+        <v>30.9210526315789</v>
       </c>
       <c r="AB11" t="n">
-        <v>30.9210526315789</v>
+        <v>1.31578947368421</v>
       </c>
       <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
         <v>1.31578947368421</v>
       </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
       <c r="AE11" t="n">
-        <v>1.31578947368421</v>
+        <v>22.3684210526316</v>
       </c>
       <c r="AF11" t="n">
-        <v>22.3684210526316</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,108 +1684,105 @@
         <v>31039934</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>38</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S12" t="s">
         <v>38</v>
       </c>
       <c r="T12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V12" t="s">
-        <v>38</v>
-      </c>
-      <c r="W12" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W12" t="n">
+        <v>41</v>
       </c>
       <c r="X12" t="n">
-        <v>41</v>
+        <v>41.4634146341463</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.4634146341463</v>
+        <v>58.5365853658537</v>
       </c>
       <c r="Z12" t="n">
-        <v>58.5365853658537</v>
+        <v>56.0975609756098</v>
       </c>
       <c r="AA12" t="n">
-        <v>56.0975609756098</v>
+        <v>26.8292682926829</v>
       </c>
       <c r="AB12" t="n">
-        <v>26.8292682926829</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>2.4390243902439</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.4390243902439</v>
+        <v>14.6341463414634</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.6341463414634</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1833,108 +1794,105 @@
         <v>31235938</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N13" t="s">
         <v>38</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U13" t="s">
         <v>38</v>
       </c>
       <c r="V13" t="s">
-        <v>39</v>
-      </c>
-      <c r="W13" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W13" t="n">
+        <v>127</v>
       </c>
       <c r="X13" t="n">
-        <v>127</v>
+        <v>48.8188976377953</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.8188976377953</v>
+        <v>51.1811023622047</v>
       </c>
       <c r="Z13" t="n">
-        <v>51.1811023622047</v>
+        <v>43.3070866141732</v>
       </c>
       <c r="AA13" t="n">
-        <v>43.3070866141732</v>
+        <v>40.9448818897638</v>
       </c>
       <c r="AB13" t="n">
-        <v>40.9448818897638</v>
+        <v>7.8740157480315</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8740157480315</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>0.78740157480315</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.78740157480315</v>
+        <v>7.08661417322835</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.08661417322835</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1946,97 +1904,97 @@
         <v>31287199</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N14" t="s">
         <v>38</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s">
         <v>38</v>
       </c>
       <c r="U14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W14" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W14" t="n">
+        <v>61</v>
       </c>
       <c r="X14" t="n">
-        <v>61</v>
+        <v>55.7377049180328</v>
       </c>
       <c r="Y14" t="n">
-        <v>55.7377049180328</v>
+        <v>44.2622950819672</v>
       </c>
       <c r="Z14" t="n">
-        <v>44.2622950819672</v>
+        <v>37.7049180327869</v>
       </c>
       <c r="AA14" t="n">
-        <v>37.7049180327869</v>
+        <v>40.9836065573771</v>
       </c>
       <c r="AB14" t="n">
-        <v>40.9836065573771</v>
+        <v>6.55737704918033</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.55737704918033</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>14.7540983606557</v>
       </c>
       <c r="AF14" t="n">
-        <v>14.7540983606557</v>
+        <v>100</v>
       </c>
       <c r="AG14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -2045,9 +2003,6 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2059,108 +2014,105 @@
         <v>31292346</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V15" t="s">
-        <v>38</v>
-      </c>
-      <c r="W15" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W15" t="n">
+        <v>47</v>
       </c>
       <c r="X15" t="n">
-        <v>47</v>
+        <v>36.1702127659575</v>
       </c>
       <c r="Y15" t="n">
-        <v>36.1702127659575</v>
+        <v>63.8297872340426</v>
       </c>
       <c r="Z15" t="n">
-        <v>63.8297872340426</v>
+        <v>51.063829787234</v>
       </c>
       <c r="AA15" t="n">
-        <v>51.063829787234</v>
+        <v>25.531914893617</v>
       </c>
       <c r="AB15" t="n">
-        <v>25.531914893617</v>
+        <v>10.6382978723404</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.6382978723404</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>12.7659574468085</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.7659574468085</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="AG15" t="n">
+        <v>2.12765957446809</v>
+      </c>
+      <c r="AH15" t="n">
         <v>14.8936170212766</v>
       </c>
-      <c r="AH15" t="n">
-        <v>2.12765957446809</v>
-      </c>
       <c r="AI15" t="n">
-        <v>14.8936170212766</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2172,94 +2124,94 @@
         <v>31035386</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N16" t="s">
         <v>38</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S16" t="s">
         <v>38</v>
       </c>
       <c r="T16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V16" t="s">
         <v>38</v>
       </c>
-      <c r="W16" t="s">
-        <v>39</v>
+      <c r="W16" t="n">
+        <v>560</v>
       </c>
       <c r="X16" t="n">
-        <v>560</v>
+        <v>50.7142857142857</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.7142857142857</v>
+        <v>49.2857142857143</v>
       </c>
       <c r="Z16" t="n">
-        <v>49.2857142857143</v>
+        <v>42.6785714285714</v>
       </c>
       <c r="AA16" t="n">
-        <v>42.6785714285714</v>
+        <v>46.4285714285714</v>
       </c>
       <c r="AB16" t="n">
-        <v>46.4285714285714</v>
+        <v>8.21428571428571</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.21428571428571</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="AD16" t="n">
         <v>0.178571428571429</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.178571428571429</v>
+        <v>2.32142857142857</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.32142857142857</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -2268,12 +2220,9 @@
         <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>61.0714285714286</v>
       </c>
       <c r="AJ16" t="n">
-        <v>61.0714285714286</v>
-      </c>
-      <c r="AK16" t="n">
         <v>33.9285714285714</v>
       </c>
     </row>
@@ -2285,82 +2234,82 @@
         <v>31039918</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N17" t="s">
         <v>38</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S17" t="s">
         <v>38</v>
       </c>
       <c r="T17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V17" t="s">
-        <v>38</v>
-      </c>
-      <c r="W17" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>46.6666666666667</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.6666666666667</v>
+        <v>53.3333333333333</v>
       </c>
       <c r="Z17" t="n">
         <v>53.3333333333333</v>
       </c>
       <c r="AA17" t="n">
-        <v>53.3333333333333</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2369,24 +2318,21 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="AF17" t="n">
-        <v>33.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2398,108 +2344,105 @@
         <v>31039926</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N18" t="s">
         <v>38</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S18" t="s">
         <v>38</v>
       </c>
       <c r="T18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V18" t="s">
-        <v>38</v>
-      </c>
-      <c r="W18" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W18" t="n">
+        <v>251</v>
       </c>
       <c r="X18" t="n">
-        <v>251</v>
+        <v>53.7848605577689</v>
       </c>
       <c r="Y18" t="n">
-        <v>53.7848605577689</v>
+        <v>46.2151394422311</v>
       </c>
       <c r="Z18" t="n">
-        <v>46.2151394422311</v>
+        <v>47.0119521912351</v>
       </c>
       <c r="AA18" t="n">
-        <v>47.0119521912351</v>
+        <v>33.0677290836653</v>
       </c>
       <c r="AB18" t="n">
-        <v>33.0677290836653</v>
+        <v>3.98406374501992</v>
       </c>
       <c r="AC18" t="n">
-        <v>3.98406374501992</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.796812749003984</v>
+        <v>15.1394422310757</v>
       </c>
       <c r="AF18" t="n">
-        <v>15.1394422310757</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2511,108 +2454,105 @@
         <v>31039934</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" t="n">
         <v>39</v>
       </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19" t="s">
-        <v>39</v>
-      </c>
-      <c r="S19" t="s">
-        <v>38</v>
-      </c>
-      <c r="T19" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19" t="s">
-        <v>38</v>
-      </c>
-      <c r="V19" t="s">
-        <v>38</v>
-      </c>
-      <c r="W19" t="s">
-        <v>38</v>
-      </c>
       <c r="X19" t="n">
-        <v>39</v>
+        <v>46.1538461538462</v>
       </c>
       <c r="Y19" t="n">
+        <v>53.8461538461538</v>
+      </c>
+      <c r="Z19" t="n">
         <v>46.1538461538462</v>
       </c>
-      <c r="Z19" t="n">
-        <v>53.8461538461538</v>
-      </c>
       <c r="AA19" t="n">
-        <v>46.1538461538462</v>
+        <v>35.8974358974359</v>
       </c>
       <c r="AB19" t="n">
-        <v>35.8974358974359</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>2.56410256410256</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.56410256410256</v>
+        <v>15.3846153846154</v>
       </c>
       <c r="AF19" t="n">
-        <v>15.3846153846154</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2624,108 +2564,105 @@
         <v>31235938</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N20" t="s">
         <v>38</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U20" t="s">
         <v>38</v>
       </c>
       <c r="V20" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W20" t="n">
+        <v>132</v>
       </c>
       <c r="X20" t="n">
-        <v>132</v>
+        <v>52.2727272727273</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.2727272727273</v>
+        <v>47.7272727272727</v>
       </c>
       <c r="Z20" t="n">
-        <v>47.7272727272727</v>
+        <v>40.1515151515151</v>
       </c>
       <c r="AA20" t="n">
-        <v>40.1515151515151</v>
+        <v>41.6666666666667</v>
       </c>
       <c r="AB20" t="n">
-        <v>41.6666666666667</v>
+        <v>7.57575757575758</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.57575757575758</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.757575757575758</v>
+        <v>9.84848484848485</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.84848484848485</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2737,97 +2674,97 @@
         <v>31287199</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N21" t="s">
         <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V21" t="s">
-        <v>38</v>
-      </c>
-      <c r="W21" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W21" t="n">
+        <v>120</v>
       </c>
       <c r="X21" t="n">
-        <v>120</v>
+        <v>50.8333333333333</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.8333333333333</v>
+        <v>49.1666666666667</v>
       </c>
       <c r="Z21" t="n">
-        <v>49.1666666666667</v>
+        <v>43.3333333333333</v>
       </c>
       <c r="AA21" t="n">
         <v>43.3333333333333</v>
       </c>
       <c r="AB21" t="n">
-        <v>43.3333333333333</v>
+        <v>5.83333333333333</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.83333333333333</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.5</v>
+        <v>100</v>
       </c>
       <c r="AG21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -2836,9 +2773,6 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2850,108 +2784,105 @@
         <v>31292346</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N22" t="s">
         <v>38</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V22" t="s">
-        <v>38</v>
-      </c>
-      <c r="W22" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="W22" t="n">
+        <v>40</v>
       </c>
       <c r="X22" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y22" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="Z22" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA22" t="n">
-        <v>55</v>
+        <v>27.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>27.5</v>
+        <v>5</v>
       </c>
       <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF22" t="n">
         <v>5</v>
       </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/waschoolpiracema.xlsx
+++ b/inst/extdata/waschoolpiracema.xlsx
@@ -122,19 +122,19 @@
     <t xml:space="preserve">pc_sec</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
+    <t xml:space="preserve">state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private</t>
   </si>
 </sst>
 </file>
@@ -589,59 +589,59 @@
       <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>678</v>
@@ -694,64 +694,64 @@
         <v>31039918</v>
       </c>
       <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" t="s">
-        <v>37</v>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>14</v>
@@ -804,64 +804,64 @@
         <v>31039926</v>
       </c>
       <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" t="s">
-        <v>37</v>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>127</v>
@@ -914,64 +914,64 @@
         <v>31039934</v>
       </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" t="s">
-        <v>37</v>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
       </c>
       <c r="W5" t="n">
         <v>117</v>
@@ -1024,64 +1024,64 @@
         <v>31235938</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V6" t="s">
-        <v>37</v>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>94</v>
@@ -1134,64 +1134,64 @@
         <v>31287199</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" t="s">
-        <v>38</v>
-      </c>
-      <c r="U7" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" t="s">
-        <v>37</v>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
       </c>
       <c r="W7" t="n">
         <v>82</v>
@@ -1249,59 +1249,59 @@
       <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" t="s">
-        <v>37</v>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="b">
+        <v>1</v>
       </c>
       <c r="W8" t="n">
         <v>44</v>
@@ -1359,59 +1359,59 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" t="s">
-        <v>38</v>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>700</v>
@@ -1464,64 +1464,64 @@
         <v>31039918</v>
       </c>
       <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" t="s">
-        <v>37</v>
-      </c>
-      <c r="U10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" t="s">
-        <v>37</v>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>15</v>
@@ -1574,64 +1574,64 @@
         <v>31039926</v>
       </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" t="s">
-        <v>37</v>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" t="b">
+        <v>1</v>
       </c>
       <c r="W11" t="n">
         <v>152</v>
@@ -1684,64 +1684,64 @@
         <v>31039934</v>
       </c>
       <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>38</v>
-      </c>
-      <c r="R12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" t="s">
-        <v>38</v>
-      </c>
-      <c r="T12" t="s">
-        <v>37</v>
-      </c>
-      <c r="U12" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" t="s">
-        <v>37</v>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" t="b">
+        <v>1</v>
       </c>
       <c r="W12" t="n">
         <v>41</v>
@@ -1794,64 +1794,64 @@
         <v>31235938</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" t="s">
-        <v>37</v>
-      </c>
-      <c r="U13" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" t="s">
-        <v>37</v>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
       </c>
       <c r="W13" t="n">
         <v>127</v>
@@ -1904,64 +1904,64 @@
         <v>31287199</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" t="s">
-        <v>37</v>
-      </c>
-      <c r="T14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U14" t="s">
-        <v>38</v>
-      </c>
-      <c r="V14" t="s">
-        <v>37</v>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="b">
+        <v>1</v>
       </c>
       <c r="W14" t="n">
         <v>61</v>
@@ -2019,59 +2019,59 @@
       <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="O15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15" t="s">
-        <v>37</v>
-      </c>
-      <c r="U15" t="s">
-        <v>37</v>
-      </c>
-      <c r="V15" t="s">
-        <v>37</v>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" t="b">
+        <v>1</v>
+      </c>
+      <c r="U15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
       </c>
       <c r="W15" t="n">
         <v>47</v>
@@ -2129,59 +2129,59 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" t="s">
-        <v>38</v>
-      </c>
-      <c r="T16" t="s">
-        <v>38</v>
-      </c>
-      <c r="U16" t="s">
-        <v>37</v>
-      </c>
-      <c r="V16" t="s">
-        <v>38</v>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>560</v>
@@ -2234,64 +2234,64 @@
         <v>31039918</v>
       </c>
       <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T17" t="s">
-        <v>37</v>
-      </c>
-      <c r="U17" t="s">
-        <v>37</v>
-      </c>
-      <c r="V17" t="s">
-        <v>37</v>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" t="b">
+        <v>1</v>
       </c>
       <c r="W17" t="n">
         <v>15</v>
@@ -2344,64 +2344,64 @@
         <v>31039926</v>
       </c>
       <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R18" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18" t="s">
-        <v>38</v>
-      </c>
-      <c r="T18" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" t="s">
-        <v>37</v>
-      </c>
-      <c r="V18" t="s">
-        <v>37</v>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+      <c r="V18" t="b">
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>251</v>
@@ -2454,64 +2454,64 @@
         <v>31039934</v>
       </c>
       <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" t="s">
-        <v>38</v>
-      </c>
-      <c r="T19" t="s">
-        <v>37</v>
-      </c>
-      <c r="U19" t="s">
-        <v>37</v>
-      </c>
-      <c r="V19" t="s">
-        <v>37</v>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="b">
+        <v>1</v>
       </c>
       <c r="W19" t="n">
         <v>39</v>
@@ -2564,64 +2564,64 @@
         <v>31235938</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" t="s">
-        <v>37</v>
-      </c>
-      <c r="N20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" t="s">
-        <v>37</v>
-      </c>
-      <c r="S20" t="s">
-        <v>37</v>
-      </c>
-      <c r="T20" t="s">
-        <v>37</v>
-      </c>
-      <c r="U20" t="s">
-        <v>38</v>
-      </c>
-      <c r="V20" t="s">
-        <v>37</v>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="b">
+        <v>1</v>
       </c>
       <c r="W20" t="n">
         <v>132</v>
@@ -2674,64 +2674,64 @@
         <v>31287199</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
       </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" t="s">
-        <v>38</v>
-      </c>
-      <c r="O21" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>38</v>
-      </c>
-      <c r="R21" t="s">
-        <v>37</v>
-      </c>
-      <c r="S21" t="s">
-        <v>37</v>
-      </c>
-      <c r="T21" t="s">
-        <v>37</v>
-      </c>
-      <c r="U21" t="s">
-        <v>37</v>
-      </c>
-      <c r="V21" t="s">
-        <v>37</v>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" t="b">
+        <v>1</v>
       </c>
       <c r="W21" t="n">
         <v>120</v>
@@ -2789,59 +2789,59 @@
       <c r="D22" t="s">
         <v>37</v>
       </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" t="s">
-        <v>37</v>
-      </c>
-      <c r="N22" t="s">
-        <v>38</v>
-      </c>
-      <c r="O22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>38</v>
-      </c>
-      <c r="R22" t="s">
-        <v>37</v>
-      </c>
-      <c r="S22" t="s">
-        <v>37</v>
-      </c>
-      <c r="T22" t="s">
-        <v>37</v>
-      </c>
-      <c r="U22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V22" t="s">
-        <v>37</v>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>40</v>
